--- a/wash_P/GER.xlsx
+++ b/wash_P/GER.xlsx
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="KL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM5" t="n">
         <v>0</v>
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="KQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR5" t="n">
         <v>0</v>
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="KI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ6" t="n">
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="KO6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP6" t="n">
         <v>0</v>
@@ -34682,7 +34682,7 @@
         <v>0</v>
       </c>
       <c r="KK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL11" t="n">
         <v>0</v>
@@ -35552,7 +35552,7 @@
         <v>0</v>
       </c>
       <c r="VO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VP11" t="n">
         <v>0</v>
@@ -40836,7 +40836,7 @@
         <v>0</v>
       </c>
       <c r="JC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD13" t="n">
         <v>0</v>
@@ -72383,7 +72383,7 @@
         <v>0</v>
       </c>
       <c r="MN23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO23" t="n">
         <v>0</v>
@@ -74809,7 +74809,7 @@
         <v>0</v>
       </c>
       <c r="DN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO24" t="n">
         <v>0</v>
@@ -79980,7 +79980,7 @@
         <v>0</v>
       </c>
       <c r="ADS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADT25" t="n">
         <v>0</v>
@@ -81497,7 +81497,7 @@
         <v>0</v>
       </c>
       <c r="JB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC26" t="n">
         <v>0</v>
@@ -85609,7 +85609,7 @@
         <v>0</v>
       </c>
       <c r="VR27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VS27" t="n">
         <v>0</v>
@@ -88716,7 +88716,7 @@
         <v>0</v>
       </c>
       <c r="VK28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VL28" t="n">
         <v>0</v>
@@ -91901,7 +91901,7 @@
         <v>0</v>
       </c>
       <c r="WD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WE29" t="n">
         <v>0</v>
@@ -92549,7 +92549,7 @@
         <v>0</v>
       </c>
       <c r="AEL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEM29" t="n">
         <v>0</v>
